--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,21 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">duration</t>
+    <t xml:space="preserve">Duration</t>
   </si>
   <si>
     <t xml:space="preserve">duration_consent</t>
@@ -71,10 +92,13 @@
     <t xml:space="preserve">duration_custom_redistr</t>
   </si>
   <si>
-    <t xml:space="preserve">duration_well_being</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration_extra</t>
+    <t xml:space="preserve">duration_scenarios_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration: feedback</t>
   </si>
 </sst>
 </file>
@@ -419,243 +443,656 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>79.4093726800297</v>
+        <v>54.6189095383723</v>
       </c>
       <c r="C2" t="n">
-        <v>74.8694854146182</v>
+        <v>50.3462511599175</v>
       </c>
       <c r="D2" t="n">
-        <v>79.9821153065367</v>
+        <v>98.7207048236767</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.2286762009534</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53.4824600470356</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.1475932130575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94.3922441708897</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40.3358303743502</v>
+      </c>
+      <c r="J2" t="n">
+        <v>165.744630606035</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26.8104519691443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.602498181174221</v>
+        <v>0.865022053242708</v>
       </c>
       <c r="C3" t="n">
-        <v>2.23250132734679</v>
+        <v>0.913626861264172</v>
       </c>
       <c r="D3" t="n">
-        <v>5.85011469755917</v>
+        <v>1.67229429012988</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.9043057203118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.18744863638474</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.879079547906068</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.38380988120751</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.156898151074898</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.655937545563089</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4067722397219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>2.74406677354095</v>
+        <v>2.35624567153668</v>
       </c>
       <c r="C4" t="n">
-        <v>7.8203888741053</v>
+        <v>3.17611144637241</v>
       </c>
       <c r="D4" t="n">
-        <v>9.10939808851633</v>
+        <v>21.4826814697689</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.56588540561128</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.81770263631153</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.03690255944187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.812656278836</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.49173922555039</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.3130296875054</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.90531774081634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>3813065.24004443</v>
+        <v>1.31952463965807</v>
       </c>
       <c r="C5" t="n">
-        <v>7732481.58076991</v>
+        <v>0.962012274645765</v>
       </c>
       <c r="D5" t="n">
-        <v>3746526.99273467</v>
+        <v>6.97911308997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.968525137340013</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.83704619458625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.97265683301789</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.8571997589622</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.569412479479255</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.938182656309299</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.01759806933454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1490555865418</v>
+        <v>1.08676599909981</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9893952638468</v>
+        <v>16.1142266459751</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22952247262727</v>
+        <v>49.9070548322777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.95640658236354</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.6676120345269</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000000584332130337046</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36.0050665625499</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.8410617820713</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95.5968826184198</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.16243203533066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>1.81936526626496</v>
+        <v>20.5450832310566</v>
       </c>
       <c r="C7" t="n">
-        <v>1.71184472606784</v>
+        <v>1.7064706955598</v>
       </c>
       <c r="D7" t="n">
-        <v>11.6085645543618</v>
+        <v>1.91740159941223</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2529171253632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.396402877254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.34018341576523</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.87778838943067</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.44163616196702</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.45760993306465</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.19540426986552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>9405637.89527246</v>
+        <v>0.680376490407819</v>
       </c>
       <c r="C8" t="n">
-        <v>10444551.7253524</v>
+        <v>0.405484165138313</v>
       </c>
       <c r="D8" t="n">
-        <v>8661996.04809101</v>
+        <v>0.325474137932971</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.35871428304161</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.29488350450417</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.303403004571755</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63007188308936</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.276674638742063</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.386171094649682</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.302462699769574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>7.24459239051531</v>
+        <v>5.29132896776312</v>
       </c>
       <c r="C9" t="n">
-        <v>3.06563882333104</v>
+        <v>1.85053533656424</v>
       </c>
       <c r="D9" t="n">
-        <v>2.42565560303613</v>
+        <v>1.65792755271118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.57006743655871</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8486885148394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.251667840268</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.81464859602475</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.88926904701893</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.87948838872397</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.75904696605387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>10.613089662131</v>
+        <v>1.29334747443912</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1604157817204</v>
+        <v>0.717805429814601</v>
       </c>
       <c r="D10" t="n">
-        <v>6.08554807150698</v>
+        <v>0.491950541627924</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.30147445915731</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7512185407334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.22339685682717</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.40978166367703</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.953788946244413</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.53242638669542</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.598783640652059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1284601894059</v>
+        <v>2.36465870529506</v>
       </c>
       <c r="C11" t="n">
-        <v>8.87844047853885</v>
+        <v>2.39714805995399</v>
       </c>
       <c r="D11" t="n">
-        <v>13.2091155907752</v>
+        <v>2.26773819931512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.61667343240804</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.9918760186416</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.32117547399132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.56302130763023</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.65020362221881</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.58479505923857</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.7620910708996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>29025198.9711453</v>
+        <v>1.48089355693076</v>
       </c>
       <c r="C12" t="n">
-        <v>29022356.678165</v>
+        <v>2.41602112877734</v>
       </c>
       <c r="D12" t="n">
-        <v>29026964.5505682</v>
+        <v>2.24637814914496</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.914751173464597</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.26994966946393</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.20840630422911</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.41553034772146</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.05983847366979</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.07260198108513</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.849667840903672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0399610243735</v>
+        <v>4.39577425847138</v>
       </c>
       <c r="C13" t="n">
-        <v>7.04257112616675</v>
+        <v>0.472044903225971</v>
       </c>
       <c r="D13" t="n">
-        <v>17.9379980710558</v>
+        <v>1.25070043752206</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.355926696122851</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.634669335725619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.49606900957256</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.820382043205865</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.770888276127</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.441582033173771</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.63383646036015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>29025403.9557346</v>
+        <v>1.04235018326547</v>
       </c>
       <c r="C14" t="n">
-        <v>29022363.8829587</v>
+        <v>1.00479958068661</v>
       </c>
       <c r="D14" t="n">
-        <v>29026982.1668098</v>
+        <v>1.27735927458447</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.32013986089704</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.29474826244436</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.49281444373671</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.980764995447258</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.822825688217261</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.15451634411555</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.783594634147201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>4.58697824781267</v>
+        <v>2.22315031433486</v>
       </c>
       <c r="C15" t="n">
-        <v>5.49500614381241</v>
+        <v>2.23092400463247</v>
       </c>
       <c r="D15" t="n">
-        <v>8.53613913750593</v>
+        <v>1.30973780953563</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.08616292634026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.09186383933597</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.37435238885321</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.76671163620203</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.86101572387303</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.1125839959294</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.43192433593584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>3813072.4137706</v>
+        <v>5.46741576028084</v>
       </c>
       <c r="C16" t="n">
-        <v>7732510.52584538</v>
+        <v>8.85490971010894</v>
       </c>
       <c r="D16" t="n">
-        <v>3746528.72651788</v>
+        <v>1.71556803366515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.61005916742777</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.67838238424891</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.01082303815988</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.03306982029171</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.33812086202477</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.87606510348827</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.33597676888169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>3.35676541516929</v>
+        <v>2.02477150255011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.843853214737833</v>
+        <v>4.00853289509892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307487068141269</v>
+        <v>2.44664086637642</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.71817515556044</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.97807724161202</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.96023688201242</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.825124345772</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.82621973944783</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.53532012863652</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.63593285193528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>1906529.79963196</v>
+        <v>1.27390079470754</v>
       </c>
       <c r="C18" t="n">
-        <v>4165848.35634605</v>
+        <v>2.04154103843431</v>
       </c>
       <c r="D18" t="n">
-        <v>1731885.65976387</v>
+        <v>1.08498224342931</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.20992867609149</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.14936981923541</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.47780751813595</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.5609186102891</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.58852149087229</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.41118459026011</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.28583426122548</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.90829993533233</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.07405698366455</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.687702296272786</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.51856296289349</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.592520537187359</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.798617512236242</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.635698050552692</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.797716065751166</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.796253059176779</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.743776083310911</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -473,7 +473,7 @@
         <v>54.6189095383723</v>
       </c>
       <c r="C2" t="n">
-        <v>50.3462511599175</v>
+        <v>50.8961431837467</v>
       </c>
       <c r="D2" t="n">
         <v>98.7207048236767</v>
@@ -508,7 +508,7 @@
         <v>0.865022053242708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.913626861264172</v>
+        <v>0.921828447270157</v>
       </c>
       <c r="D3" t="n">
         <v>1.67229429012988</v>
@@ -543,7 +543,7 @@
         <v>2.35624567153668</v>
       </c>
       <c r="C4" t="n">
-        <v>3.17611144637241</v>
+        <v>3.23933354573427</v>
       </c>
       <c r="D4" t="n">
         <v>21.4826814697689</v>
@@ -578,7 +578,7 @@
         <v>1.31952463965807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.962012274645765</v>
+        <v>1.08502102439857</v>
       </c>
       <c r="D5" t="n">
         <v>6.97911308997</v>
@@ -613,7 +613,7 @@
         <v>1.08676599909981</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1142266459751</v>
+        <v>16.0663878125418</v>
       </c>
       <c r="D6" t="n">
         <v>49.9070548322777</v>
@@ -648,7 +648,7 @@
         <v>20.5450832310566</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7064706955598</v>
+        <v>1.71468507211279</v>
       </c>
       <c r="D7" t="n">
         <v>1.91740159941223</v>
@@ -683,7 +683,7 @@
         <v>0.680376490407819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405484165138313</v>
+        <v>0.459979702669254</v>
       </c>
       <c r="D8" t="n">
         <v>0.325474137932971</v>
@@ -718,7 +718,7 @@
         <v>5.29132896776312</v>
       </c>
       <c r="C9" t="n">
-        <v>1.85053533656424</v>
+        <v>1.98332345850257</v>
       </c>
       <c r="D9" t="n">
         <v>1.65792755271118</v>
@@ -753,7 +753,7 @@
         <v>1.29334747443912</v>
       </c>
       <c r="C10" t="n">
-        <v>0.717805429814601</v>
+        <v>0.722759145066041</v>
       </c>
       <c r="D10" t="n">
         <v>0.491950541627924</v>
@@ -788,7 +788,7 @@
         <v>2.36465870529506</v>
       </c>
       <c r="C11" t="n">
-        <v>2.39714805995399</v>
+        <v>2.41974796634975</v>
       </c>
       <c r="D11" t="n">
         <v>2.26773819931512</v>
@@ -823,7 +823,7 @@
         <v>1.48089355693076</v>
       </c>
       <c r="C12" t="n">
-        <v>2.41602112877734</v>
+        <v>2.42354051440526</v>
       </c>
       <c r="D12" t="n">
         <v>2.24637814914496</v>
@@ -858,7 +858,7 @@
         <v>4.39577425847138</v>
       </c>
       <c r="C13" t="n">
-        <v>0.472044903225971</v>
+        <v>0.481941812983575</v>
       </c>
       <c r="D13" t="n">
         <v>1.25070043752206</v>
@@ -893,7 +893,7 @@
         <v>1.04235018326547</v>
       </c>
       <c r="C14" t="n">
-        <v>1.00479958068661</v>
+        <v>1.01978378969641</v>
       </c>
       <c r="D14" t="n">
         <v>1.27735927458447</v>
@@ -928,7 +928,7 @@
         <v>2.22315031433486</v>
       </c>
       <c r="C15" t="n">
-        <v>2.23092400463247</v>
+        <v>2.2411812553307</v>
       </c>
       <c r="D15" t="n">
         <v>1.30973780953563</v>
@@ -963,7 +963,7 @@
         <v>5.46741576028084</v>
       </c>
       <c r="C16" t="n">
-        <v>8.85490971010894</v>
+        <v>8.8624401558661</v>
       </c>
       <c r="D16" t="n">
         <v>1.71556803366515</v>
@@ -972,7 +972,7 @@
         <v>1.61005916742777</v>
       </c>
       <c r="F16" t="n">
-        <v>9.67838238424891</v>
+        <v>9.6783823842489</v>
       </c>
       <c r="G16" t="n">
         <v>2.01082303815988</v>
@@ -998,7 +998,7 @@
         <v>2.02477150255011</v>
       </c>
       <c r="C17" t="n">
-        <v>4.00853289509892</v>
+        <v>3.99671782285035</v>
       </c>
       <c r="D17" t="n">
         <v>2.44664086637642</v>
@@ -1033,7 +1033,7 @@
         <v>1.27390079470754</v>
       </c>
       <c r="C18" t="n">
-        <v>2.04154103843431</v>
+        <v>2.18642837084754</v>
       </c>
       <c r="D18" t="n">
         <v>1.08498224342931</v>
@@ -1068,7 +1068,7 @@
         <v>0.90829993533233</v>
       </c>
       <c r="C19" t="n">
-        <v>1.07405698366455</v>
+        <v>1.07104328712152</v>
       </c>
       <c r="D19" t="n">
         <v>0.687702296272786</v>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -470,34 +470,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>54.6189095383723</v>
+        <v>46.2812052005746</v>
       </c>
       <c r="C2" t="n">
-        <v>50.8961431837467</v>
+        <v>47.8764442031612</v>
       </c>
       <c r="D2" t="n">
-        <v>98.7207048236767</v>
+        <v>97.8065736640735</v>
       </c>
       <c r="E2" t="n">
         <v>45.2286762009534</v>
       </c>
       <c r="F2" t="n">
-        <v>53.4824600470356</v>
+        <v>54.7854415111965</v>
       </c>
       <c r="G2" t="n">
-        <v>30.1475932130575</v>
+        <v>30.1349377990694</v>
       </c>
       <c r="H2" t="n">
-        <v>94.3922441708897</v>
+        <v>97.7660430817794</v>
       </c>
       <c r="I2" t="n">
-        <v>40.3358303743502</v>
+        <v>49.4525266170493</v>
       </c>
       <c r="J2" t="n">
-        <v>165.744630606035</v>
+        <v>167.733062243614</v>
       </c>
       <c r="K2" t="n">
-        <v>26.8104519691443</v>
+        <v>26.1668133498211</v>
       </c>
     </row>
     <row r="3">
@@ -505,34 +505,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.865022053242708</v>
+        <v>0.885787251435075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.921828447270157</v>
+        <v>0.935480694435959</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67229429012988</v>
+        <v>1.67092590683931</v>
       </c>
       <c r="E3" t="n">
         <v>18.9043057203118</v>
       </c>
       <c r="F3" t="n">
-        <v>2.18744863638474</v>
+        <v>2.14821033995289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.879079547906068</v>
+        <v>0.875075973628157</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38380988120751</v>
+        <v>1.3280183972382</v>
       </c>
       <c r="I3" t="n">
-        <v>0.156898151074898</v>
+        <v>0.170812325652499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.655937545563089</v>
+        <v>0.638203862207161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4067722397219</v>
+        <v>0.42047009402081</v>
       </c>
     </row>
     <row r="4">
@@ -540,34 +540,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35624567153668</v>
+        <v>2.19356784695952</v>
       </c>
       <c r="C4" t="n">
-        <v>3.23933354573427</v>
+        <v>3.01594805186058</v>
       </c>
       <c r="D4" t="n">
-        <v>21.4826814697689</v>
+        <v>21.2190148430703</v>
       </c>
       <c r="E4" t="n">
         <v>1.56588540561128</v>
       </c>
       <c r="F4" t="n">
-        <v>2.81770263631153</v>
+        <v>2.81470774792229</v>
       </c>
       <c r="G4" t="n">
-        <v>4.03690255944187</v>
+        <v>4.04646741489453</v>
       </c>
       <c r="H4" t="n">
-        <v>16.812656278836</v>
+        <v>16.7122510784549</v>
       </c>
       <c r="I4" t="n">
-        <v>2.49173922555039</v>
+        <v>5.11273381299242</v>
       </c>
       <c r="J4" t="n">
-        <v>25.3130296875054</v>
+        <v>24.4004635709915</v>
       </c>
       <c r="K4" t="n">
-        <v>1.90531774081634</v>
+        <v>1.88990930706128</v>
       </c>
     </row>
     <row r="5">
@@ -575,34 +575,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>1.31952463965807</v>
+        <v>1.23289231132108</v>
       </c>
       <c r="C5" t="n">
-        <v>1.08502102439857</v>
+        <v>1.0231275373705</v>
       </c>
       <c r="D5" t="n">
-        <v>6.97911308997</v>
+        <v>6.99212120497514</v>
       </c>
       <c r="E5" t="n">
         <v>0.968525137340013</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83704619458625</v>
+        <v>1.81523882642098</v>
       </c>
       <c r="G5" t="n">
-        <v>2.97265683301789</v>
+        <v>2.92611721703977</v>
       </c>
       <c r="H5" t="n">
-        <v>17.8571997589622</v>
+        <v>18.3155196249323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.569412479479255</v>
+        <v>2.33474670993454</v>
       </c>
       <c r="J5" t="n">
-        <v>0.938182656309299</v>
+        <v>0.923087701002926</v>
       </c>
       <c r="K5" t="n">
-        <v>1.01759806933454</v>
+        <v>0.973049442461855</v>
       </c>
     </row>
     <row r="6">
@@ -610,34 +610,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>1.08676599909981</v>
+        <v>1.11159443288149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0663878125418</v>
+        <v>16.1333942841618</v>
       </c>
       <c r="D6" t="n">
-        <v>49.9070548322777</v>
+        <v>49.3052726526991</v>
       </c>
       <c r="E6" t="n">
         <v>1.95640658236354</v>
       </c>
       <c r="F6" t="n">
-        <v>12.6676120345269</v>
+        <v>12.6178758533374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000584332130337046</v>
+        <v>0.000000580141730774121</v>
       </c>
       <c r="H6" t="n">
-        <v>36.0050665625499</v>
+        <v>38.2529259579451</v>
       </c>
       <c r="I6" t="n">
-        <v>10.8410617820713</v>
+        <v>11.4497158071879</v>
       </c>
       <c r="J6" t="n">
-        <v>95.5968826184198</v>
+        <v>98.6085196369214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.16243203533066</v>
+        <v>8.67156499187617</v>
       </c>
     </row>
     <row r="7">
@@ -645,34 +645,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>20.5450832310566</v>
+        <v>16.2962544798072</v>
       </c>
       <c r="C7" t="n">
-        <v>1.71468507211279</v>
+        <v>1.66158201235417</v>
       </c>
       <c r="D7" t="n">
-        <v>1.91740159941223</v>
+        <v>1.91106044424324</v>
       </c>
       <c r="E7" t="n">
         <v>1.2529171253632</v>
       </c>
       <c r="F7" t="n">
-        <v>1.396402877254</v>
+        <v>1.39152606415389</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34018341576523</v>
+        <v>1.34017886284806</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87778838943067</v>
+        <v>2.08221232576449</v>
       </c>
       <c r="I7" t="n">
-        <v>1.44163616196702</v>
+        <v>1.46443057153881</v>
       </c>
       <c r="J7" t="n">
-        <v>1.45760993306465</v>
+        <v>1.44711176298101</v>
       </c>
       <c r="K7" t="n">
-        <v>1.19540426986552</v>
+        <v>1.25498303206031</v>
       </c>
     </row>
     <row r="8">
@@ -680,34 +680,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680376490407819</v>
+        <v>0.512092465400362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.459979702669254</v>
+        <v>0.544917620993922</v>
       </c>
       <c r="D8" t="n">
-        <v>0.325474137932971</v>
+        <v>0.324731723025285</v>
       </c>
       <c r="E8" t="n">
         <v>0.35871428304161</v>
       </c>
       <c r="F8" t="n">
-        <v>0.29488350450417</v>
+        <v>0.282471051529525</v>
       </c>
       <c r="G8" t="n">
-        <v>0.303403004571755</v>
+        <v>0.302162472617963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63007188308936</v>
+        <v>0.622910131538698</v>
       </c>
       <c r="I8" t="n">
-        <v>0.276674638742063</v>
+        <v>0.272052402024253</v>
       </c>
       <c r="J8" t="n">
-        <v>0.386171094649682</v>
+        <v>0.379074676219375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.302462699769574</v>
+        <v>0.288166067749854</v>
       </c>
     </row>
     <row r="9">
@@ -715,34 +715,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>5.29132896776312</v>
+        <v>3.05450715654297</v>
       </c>
       <c r="C9" t="n">
-        <v>1.98332345850257</v>
+        <v>1.94659851407825</v>
       </c>
       <c r="D9" t="n">
-        <v>1.65792755271118</v>
+        <v>1.65150629122706</v>
       </c>
       <c r="E9" t="n">
         <v>2.57006743655871</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8486885148394</v>
+        <v>1.82182689812728</v>
       </c>
       <c r="G9" t="n">
-        <v>1.251667840268</v>
+        <v>1.24667453932849</v>
       </c>
       <c r="H9" t="n">
-        <v>1.81464859602475</v>
+        <v>1.79179676477894</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88926904701893</v>
+        <v>2.95616641156989</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87948838872397</v>
+        <v>1.86124860531249</v>
       </c>
       <c r="K9" t="n">
-        <v>1.75904696605387</v>
+        <v>1.70835678232244</v>
       </c>
     </row>
     <row r="10">
@@ -750,34 +750,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>1.29334747443912</v>
+        <v>1.14179133333805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.722759145066041</v>
+        <v>0.691654056787103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.491950541627924</v>
+        <v>0.491438789625126</v>
       </c>
       <c r="E10" t="n">
         <v>2.30147445915731</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7512185407334</v>
+        <v>0.745160004106887</v>
       </c>
       <c r="G10" t="n">
-        <v>6.22339685682717</v>
+        <v>6.28147787389779</v>
       </c>
       <c r="H10" t="n">
-        <v>1.40978166367703</v>
+        <v>1.43648060009168</v>
       </c>
       <c r="I10" t="n">
-        <v>0.953788946244413</v>
+        <v>0.93643586787434</v>
       </c>
       <c r="J10" t="n">
-        <v>1.53242638669542</v>
+        <v>1.48746921031471</v>
       </c>
       <c r="K10" t="n">
-        <v>0.598783640652059</v>
+        <v>0.574552771878987</v>
       </c>
     </row>
     <row r="11">
@@ -785,34 +785,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>2.36465870529506</v>
+        <v>2.2917644186652</v>
       </c>
       <c r="C11" t="n">
-        <v>2.41974796634975</v>
+        <v>2.45590401682592</v>
       </c>
       <c r="D11" t="n">
-        <v>2.26773819931512</v>
+        <v>2.25791951707862</v>
       </c>
       <c r="E11" t="n">
         <v>3.61667343240804</v>
       </c>
       <c r="F11" t="n">
-        <v>7.9918760186416</v>
+        <v>8.47366551035866</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32117547399132</v>
+        <v>2.29863874297565</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56302130763023</v>
+        <v>2.59962500396036</v>
       </c>
       <c r="I11" t="n">
-        <v>6.65020362221881</v>
+        <v>6.37296205940103</v>
       </c>
       <c r="J11" t="n">
-        <v>2.58479505923857</v>
+        <v>2.54898622371065</v>
       </c>
       <c r="K11" t="n">
-        <v>1.7620910708996</v>
+        <v>1.74545023818563</v>
       </c>
     </row>
     <row r="12">
@@ -820,34 +820,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>1.48089355693076</v>
+        <v>1.41308708451343</v>
       </c>
       <c r="C12" t="n">
-        <v>2.42354051440526</v>
+        <v>2.45919243824586</v>
       </c>
       <c r="D12" t="n">
-        <v>2.24637814914496</v>
+        <v>2.24196345520835</v>
       </c>
       <c r="E12" t="n">
         <v>0.914751173464597</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26994966946393</v>
+        <v>1.30356411799632</v>
       </c>
       <c r="G12" t="n">
-        <v>1.20840630422911</v>
+        <v>1.2090389253528</v>
       </c>
       <c r="H12" t="n">
-        <v>2.41553034772146</v>
+        <v>2.18027572424009</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05983847366979</v>
+        <v>1.92117090205997</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07260198108513</v>
+        <v>1.07250578510862</v>
       </c>
       <c r="K12" t="n">
-        <v>0.849667840903672</v>
+        <v>0.830919471250349</v>
       </c>
     </row>
     <row r="13">
@@ -855,34 +855,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>4.39577425847138</v>
+        <v>3.23216226917529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.481941812983575</v>
+        <v>0.480376075997992</v>
       </c>
       <c r="D13" t="n">
-        <v>1.25070043752206</v>
+        <v>1.24317017957353</v>
       </c>
       <c r="E13" t="n">
         <v>0.355926696122851</v>
       </c>
       <c r="F13" t="n">
-        <v>0.634669335725619</v>
+        <v>0.631263062430257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.49606900957256</v>
+        <v>0.494594091054336</v>
       </c>
       <c r="H13" t="n">
-        <v>0.820382043205865</v>
+        <v>1.60638141015664</v>
       </c>
       <c r="I13" t="n">
-        <v>1.770888276127</v>
+        <v>1.59234048253672</v>
       </c>
       <c r="J13" t="n">
-        <v>0.441582033173771</v>
+        <v>0.44034482321189</v>
       </c>
       <c r="K13" t="n">
-        <v>0.63383646036015</v>
+        <v>0.603923975177584</v>
       </c>
     </row>
     <row r="14">
@@ -890,34 +890,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>1.04235018326547</v>
+        <v>1.03519498409892</v>
       </c>
       <c r="C14" t="n">
-        <v>1.01978378969641</v>
+        <v>1.01082010464703</v>
       </c>
       <c r="D14" t="n">
-        <v>1.27735927458447</v>
+        <v>1.27667089133251</v>
       </c>
       <c r="E14" t="n">
         <v>3.32013986089704</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29474826244436</v>
+        <v>1.26740513490379</v>
       </c>
       <c r="G14" t="n">
-        <v>1.49281444373671</v>
+        <v>1.4895847271626</v>
       </c>
       <c r="H14" t="n">
-        <v>0.980764995447258</v>
+        <v>0.972928723489193</v>
       </c>
       <c r="I14" t="n">
-        <v>0.822825688217261</v>
+        <v>0.89244912589945</v>
       </c>
       <c r="J14" t="n">
-        <v>1.15451634411555</v>
+        <v>1.14400943378234</v>
       </c>
       <c r="K14" t="n">
-        <v>0.783594634147201</v>
+        <v>0.782662532319666</v>
       </c>
     </row>
     <row r="15">
@@ -925,34 +925,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>2.22315031433486</v>
+        <v>2.11970696245837</v>
       </c>
       <c r="C15" t="n">
-        <v>2.2411812553307</v>
+        <v>2.16332974422616</v>
       </c>
       <c r="D15" t="n">
-        <v>1.30973780953563</v>
+        <v>1.30732597408538</v>
       </c>
       <c r="E15" t="n">
         <v>1.08616292634026</v>
       </c>
       <c r="F15" t="n">
-        <v>2.09186383933597</v>
+        <v>2.03462127086973</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37435238885321</v>
+        <v>1.37538704274184</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76671163620203</v>
+        <v>1.79640963724803</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86101572387303</v>
+        <v>2.91346157864839</v>
       </c>
       <c r="J15" t="n">
-        <v>24.1125839959294</v>
+        <v>24.1815303369679</v>
       </c>
       <c r="K15" t="n">
-        <v>1.43192433593584</v>
+        <v>1.41700079176572</v>
       </c>
     </row>
     <row r="16">
@@ -960,34 +960,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>5.46741576028084</v>
+        <v>5.57063341925368</v>
       </c>
       <c r="C16" t="n">
-        <v>8.8624401558661</v>
+        <v>6.67955793141847</v>
       </c>
       <c r="D16" t="n">
-        <v>1.71556803366515</v>
+        <v>1.71080898832525</v>
       </c>
       <c r="E16" t="n">
         <v>1.61005916742777</v>
       </c>
       <c r="F16" t="n">
-        <v>9.6783823842489</v>
+        <v>10.5410870135285</v>
       </c>
       <c r="G16" t="n">
-        <v>2.01082303815988</v>
+        <v>2.00926138849334</v>
       </c>
       <c r="H16" t="n">
-        <v>2.03306982029171</v>
+        <v>2.03595679514751</v>
       </c>
       <c r="I16" t="n">
-        <v>2.33812086202477</v>
+        <v>6.92170555730485</v>
       </c>
       <c r="J16" t="n">
-        <v>1.87606510348827</v>
+        <v>1.85932277052074</v>
       </c>
       <c r="K16" t="n">
-        <v>1.33597676888169</v>
+        <v>1.31981959804677</v>
       </c>
     </row>
     <row r="17">
@@ -995,34 +995,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>2.02477150255011</v>
+        <v>2.02219364714383</v>
       </c>
       <c r="C17" t="n">
-        <v>3.99671782285035</v>
+        <v>3.69553502268643</v>
       </c>
       <c r="D17" t="n">
-        <v>2.44664086637642</v>
+        <v>2.43544622742681</v>
       </c>
       <c r="E17" t="n">
         <v>2.71817515556044</v>
       </c>
       <c r="F17" t="n">
-        <v>4.97807724161202</v>
+        <v>5.16472831550859</v>
       </c>
       <c r="G17" t="n">
-        <v>1.96023688201242</v>
+        <v>1.95825856699932</v>
       </c>
       <c r="H17" t="n">
-        <v>2.825124345772</v>
+        <v>2.74938089440662</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82621973944783</v>
+        <v>1.8161262154325</v>
       </c>
       <c r="J17" t="n">
-        <v>4.53532012863652</v>
+        <v>4.55779547317775</v>
       </c>
       <c r="K17" t="n">
-        <v>1.63593285193528</v>
+        <v>1.6963366416397</v>
       </c>
     </row>
     <row r="18">
@@ -1030,34 +1030,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>1.27390079470754</v>
+        <v>1.27094529052618</v>
       </c>
       <c r="C18" t="n">
-        <v>2.18642837084754</v>
+        <v>2.00524177269156</v>
       </c>
       <c r="D18" t="n">
-        <v>1.08498224342931</v>
+        <v>1.0816616762197</v>
       </c>
       <c r="E18" t="n">
         <v>1.20992867609149</v>
       </c>
       <c r="F18" t="n">
-        <v>1.14936981923541</v>
+        <v>1.13787368562271</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47780751813595</v>
+        <v>1.47919693161943</v>
       </c>
       <c r="H18" t="n">
-        <v>2.5609186102891</v>
+        <v>2.63587340805068</v>
       </c>
       <c r="I18" t="n">
-        <v>1.58852149087229</v>
+        <v>1.47338359243653</v>
       </c>
       <c r="J18" t="n">
-        <v>1.41118459026011</v>
+        <v>1.39674522553804</v>
       </c>
       <c r="K18" t="n">
-        <v>1.28583426122548</v>
+        <v>1.2547804647292</v>
       </c>
     </row>
     <row r="19">
@@ -1065,34 +1065,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.90829993533233</v>
+        <v>0.897029847053899</v>
       </c>
       <c r="C19" t="n">
-        <v>1.07104328712152</v>
+        <v>0.973784324379516</v>
       </c>
       <c r="D19" t="n">
-        <v>0.687702296272786</v>
+        <v>0.68553489911879</v>
       </c>
       <c r="E19" t="n">
         <v>0.51856296289349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.592520537187359</v>
+        <v>0.594216614426835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.798617512236242</v>
+        <v>0.802822448273543</v>
       </c>
       <c r="H19" t="n">
-        <v>0.635698050552692</v>
+        <v>0.647096604336023</v>
       </c>
       <c r="I19" t="n">
-        <v>0.797716065751166</v>
+        <v>0.85183319455518</v>
       </c>
       <c r="J19" t="n">
-        <v>0.796253059176779</v>
+        <v>0.786643145645947</v>
       </c>
       <c r="K19" t="n">
-        <v>0.743776083310911</v>
+        <v>0.734867147274813</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -470,34 +470,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2812052005746</v>
+        <v>54.0084269081702</v>
       </c>
       <c r="C2" t="n">
-        <v>47.8764442031612</v>
+        <v>86.017595350166</v>
       </c>
       <c r="D2" t="n">
-        <v>97.8065736640735</v>
+        <v>88.2620766024478</v>
       </c>
       <c r="E2" t="n">
-        <v>45.2286762009534</v>
+        <v>44.1083868443549</v>
       </c>
       <c r="F2" t="n">
-        <v>54.7854415111965</v>
+        <v>27.0162651940156</v>
       </c>
       <c r="G2" t="n">
-        <v>30.1349377990694</v>
+        <v>26.7522741686808</v>
       </c>
       <c r="H2" t="n">
-        <v>97.7660430817794</v>
+        <v>89.5635614376235</v>
       </c>
       <c r="I2" t="n">
-        <v>49.4525266170493</v>
+        <v>49.7885203735634</v>
       </c>
       <c r="J2" t="n">
-        <v>167.733062243614</v>
+        <v>121.502544033501</v>
       </c>
       <c r="K2" t="n">
-        <v>26.1668133498211</v>
+        <v>67.9179256000284</v>
       </c>
     </row>
     <row r="3">
@@ -505,34 +505,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.885787251435075</v>
+        <v>0.853354336330778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.935480694435959</v>
+        <v>3.10568411690927</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67092590683931</v>
+        <v>1.08158939348767</v>
       </c>
       <c r="E3" t="n">
-        <v>18.9043057203118</v>
+        <v>10.7414687000063</v>
       </c>
       <c r="F3" t="n">
-        <v>2.14821033995289</v>
+        <v>0.755396463872956</v>
       </c>
       <c r="G3" t="n">
-        <v>0.875075973628157</v>
+        <v>0.926638029188717</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3280183972382</v>
+        <v>26.6876807088145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.170812325652499</v>
+        <v>0.31915896479221</v>
       </c>
       <c r="J3" t="n">
-        <v>0.638203862207161</v>
+        <v>0.541646923123592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.42047009402081</v>
+        <v>8.35225616588912</v>
       </c>
     </row>
     <row r="4">
@@ -540,34 +540,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>2.19356784695952</v>
+        <v>2.51819726513441</v>
       </c>
       <c r="C4" t="n">
-        <v>3.01594805186058</v>
+        <v>2.88752589498947</v>
       </c>
       <c r="D4" t="n">
-        <v>21.2190148430703</v>
+        <v>15.3365451191409</v>
       </c>
       <c r="E4" t="n">
-        <v>1.56588540561128</v>
+        <v>2.05577102655493</v>
       </c>
       <c r="F4" t="n">
-        <v>2.81470774792229</v>
+        <v>2.47566389349992</v>
       </c>
       <c r="G4" t="n">
-        <v>4.04646741489453</v>
+        <v>3.67473293081903</v>
       </c>
       <c r="H4" t="n">
-        <v>16.7122510784549</v>
+        <v>5.07212879661139</v>
       </c>
       <c r="I4" t="n">
-        <v>5.11273381299242</v>
+        <v>4.63205084279722</v>
       </c>
       <c r="J4" t="n">
-        <v>24.4004635709915</v>
+        <v>8.09002146145839</v>
       </c>
       <c r="K4" t="n">
-        <v>1.88990930706128</v>
+        <v>20.0908166744983</v>
       </c>
     </row>
     <row r="5">
@@ -575,34 +575,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>1.23289231132108</v>
+        <v>0.981228055867045</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0231275373705</v>
+        <v>3.21010423412063</v>
       </c>
       <c r="D5" t="n">
-        <v>6.99212120497514</v>
+        <v>4.54813276452307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.968525137340013</v>
+        <v>0.906709977515774</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81523882642098</v>
+        <v>1.31268407933396</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92611721703977</v>
+        <v>2.57275475431305</v>
       </c>
       <c r="H5" t="n">
-        <v>18.3155196249323</v>
+        <v>13.2074929233969</v>
       </c>
       <c r="I5" t="n">
-        <v>2.33474670993454</v>
+        <v>2.81022494818677</v>
       </c>
       <c r="J5" t="n">
-        <v>0.923087701002926</v>
+        <v>4.49692432549506</v>
       </c>
       <c r="K5" t="n">
-        <v>0.973049442461855</v>
+        <v>1.57616105344439</v>
       </c>
     </row>
     <row r="6">
@@ -610,34 +610,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>1.11159443288149</v>
+        <v>6.57851818657647</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1333942841618</v>
+        <v>2.9394052615601</v>
       </c>
       <c r="D6" t="n">
-        <v>49.3052726526991</v>
+        <v>32.1551585109695</v>
       </c>
       <c r="E6" t="n">
-        <v>1.95640658236354</v>
+        <v>2.13013142419517</v>
       </c>
       <c r="F6" t="n">
-        <v>12.6178758533374</v>
+        <v>2.41502222746053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000580141730774121</v>
+        <v>0.000000565710697373446</v>
       </c>
       <c r="H6" t="n">
-        <v>38.2529259579451</v>
+        <v>13.4577833167797</v>
       </c>
       <c r="I6" t="n">
-        <v>11.4497158071879</v>
+        <v>10.8278346693018</v>
       </c>
       <c r="J6" t="n">
-        <v>98.6085196369214</v>
+        <v>61.0474632866556</v>
       </c>
       <c r="K6" t="n">
-        <v>8.67156499187617</v>
+        <v>5.87160796763517</v>
       </c>
     </row>
     <row r="7">
@@ -645,34 +645,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2962544798072</v>
+        <v>9.83168604830684</v>
       </c>
       <c r="C7" t="n">
-        <v>1.66158201235417</v>
+        <v>26.0174112278558</v>
       </c>
       <c r="D7" t="n">
-        <v>1.91106044424324</v>
+        <v>2.6541030783692</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2529171253632</v>
+        <v>1.85801375165641</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39152606415389</v>
+        <v>1.27699305811605</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34017886284806</v>
+        <v>1.49697210057286</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08221232576449</v>
+        <v>1.99595255588488</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46443057153881</v>
+        <v>1.39787728204592</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44711176298101</v>
+        <v>1.46028163238985</v>
       </c>
       <c r="K7" t="n">
-        <v>1.25498303206031</v>
+        <v>2.52782561147198</v>
       </c>
     </row>
     <row r="8">
@@ -680,34 +680,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.512092465400362</v>
+        <v>0.382474082051395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.544917620993922</v>
+        <v>0.420036442844196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.324731723025285</v>
+        <v>0.403975448664974</v>
       </c>
       <c r="E8" t="n">
-        <v>0.35871428304161</v>
+        <v>0.3610017066312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.282471051529525</v>
+        <v>0.300296025080185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.302162472617963</v>
+        <v>0.277803325311605</v>
       </c>
       <c r="H8" t="n">
-        <v>0.622910131538698</v>
+        <v>0.534568451092737</v>
       </c>
       <c r="I8" t="n">
-        <v>0.272052402024253</v>
+        <v>0.29866179724145</v>
       </c>
       <c r="J8" t="n">
-        <v>0.379074676219375</v>
+        <v>0.409455745297989</v>
       </c>
       <c r="K8" t="n">
-        <v>0.288166067749854</v>
+        <v>0.390044397343803</v>
       </c>
     </row>
     <row r="9">
@@ -715,34 +715,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>3.05450715654297</v>
+        <v>2.39135600545281</v>
       </c>
       <c r="C9" t="n">
-        <v>1.94659851407825</v>
+        <v>1.81088038167873</v>
       </c>
       <c r="D9" t="n">
-        <v>1.65150629122706</v>
+        <v>2.01553741832064</v>
       </c>
       <c r="E9" t="n">
-        <v>2.57006743655871</v>
+        <v>1.92977541670347</v>
       </c>
       <c r="F9" t="n">
-        <v>1.82182689812728</v>
+        <v>1.77565925326528</v>
       </c>
       <c r="G9" t="n">
-        <v>1.24667453932849</v>
+        <v>1.19213632473448</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79179676477894</v>
+        <v>1.83416132701368</v>
       </c>
       <c r="I9" t="n">
-        <v>2.95616641156989</v>
+        <v>2.47447858879028</v>
       </c>
       <c r="J9" t="n">
-        <v>1.86124860531249</v>
+        <v>1.96118170773423</v>
       </c>
       <c r="K9" t="n">
-        <v>1.70835678232244</v>
+        <v>2.73624140075923</v>
       </c>
     </row>
     <row r="10">
@@ -750,34 +750,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>1.14179133333805</v>
+        <v>6.99938855642696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.691654056787103</v>
+        <v>8.99940015254922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.491438789625126</v>
+        <v>0.633867754401577</v>
       </c>
       <c r="E10" t="n">
-        <v>2.30147445915731</v>
+        <v>4.75764587876653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.745160004106887</v>
+        <v>0.558962262473466</v>
       </c>
       <c r="G10" t="n">
-        <v>6.28147787389779</v>
+        <v>3.9577193767339</v>
       </c>
       <c r="H10" t="n">
-        <v>1.43648060009168</v>
+        <v>1.80067704781501</v>
       </c>
       <c r="I10" t="n">
-        <v>0.93643586787434</v>
+        <v>1.13343733657744</v>
       </c>
       <c r="J10" t="n">
-        <v>1.48746921031471</v>
+        <v>6.62115040450604</v>
       </c>
       <c r="K10" t="n">
-        <v>0.574552771878987</v>
+        <v>2.87265803300135</v>
       </c>
     </row>
     <row r="11">
@@ -785,34 +785,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>2.2917644186652</v>
+        <v>2.50138724824949</v>
       </c>
       <c r="C11" t="n">
-        <v>2.45590401682592</v>
+        <v>6.9088561802043</v>
       </c>
       <c r="D11" t="n">
-        <v>2.25791951707862</v>
+        <v>3.10158260363357</v>
       </c>
       <c r="E11" t="n">
-        <v>3.61667343240804</v>
+        <v>2.76700876932477</v>
       </c>
       <c r="F11" t="n">
-        <v>8.47366551035866</v>
+        <v>3.49404016607398</v>
       </c>
       <c r="G11" t="n">
-        <v>2.29863874297565</v>
+        <v>2.18392057725969</v>
       </c>
       <c r="H11" t="n">
-        <v>2.59962500396036</v>
+        <v>3.01657985537195</v>
       </c>
       <c r="I11" t="n">
-        <v>6.37296205940103</v>
+        <v>5.1624707700945</v>
       </c>
       <c r="J11" t="n">
-        <v>2.54898622371065</v>
+        <v>3.49354874354866</v>
       </c>
       <c r="K11" t="n">
-        <v>1.74545023818563</v>
+        <v>9.37011408619729</v>
       </c>
     </row>
     <row r="12">
@@ -820,34 +820,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>1.41308708451343</v>
+        <v>1.96270932285293</v>
       </c>
       <c r="C12" t="n">
-        <v>2.45919243824586</v>
+        <v>3.52831217987178</v>
       </c>
       <c r="D12" t="n">
-        <v>2.24196345520835</v>
+        <v>58894.1260742881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.914751173464597</v>
+        <v>1.14472712161707</v>
       </c>
       <c r="F12" t="n">
-        <v>1.30356411799632</v>
+        <v>1.17582182100176</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2090389253528</v>
+        <v>1.14341606419346</v>
       </c>
       <c r="H12" t="n">
-        <v>2.18027572424009</v>
+        <v>1.95722581741435</v>
       </c>
       <c r="I12" t="n">
-        <v>1.92117090205997</v>
+        <v>1.69754073334496</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07250578510862</v>
+        <v>1.14210014200451</v>
       </c>
       <c r="K12" t="n">
-        <v>0.830919471250349</v>
+        <v>2.30277372406201</v>
       </c>
     </row>
     <row r="13">
@@ -855,34 +855,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>3.23216226917529</v>
+        <v>2.01169175490165</v>
       </c>
       <c r="C13" t="n">
-        <v>0.480376075997992</v>
+        <v>0.937477894541757</v>
       </c>
       <c r="D13" t="n">
-        <v>1.24317017957353</v>
+        <v>1.33931148771358</v>
       </c>
       <c r="E13" t="n">
-        <v>0.355926696122851</v>
+        <v>0.881502950964459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.631263062430257</v>
+        <v>0.790778170330182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.494594091054336</v>
+        <v>0.476462506123525</v>
       </c>
       <c r="H13" t="n">
-        <v>1.60638141015664</v>
+        <v>1.12455733529451</v>
       </c>
       <c r="I13" t="n">
-        <v>1.59234048253672</v>
+        <v>1.24762311965973</v>
       </c>
       <c r="J13" t="n">
-        <v>0.44034482321189</v>
+        <v>7.50829696457641</v>
       </c>
       <c r="K13" t="n">
-        <v>0.603923975177584</v>
+        <v>0.903901134878907</v>
       </c>
     </row>
     <row r="14">
@@ -890,34 +890,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>1.03519498409892</v>
+        <v>1.01445986306682</v>
       </c>
       <c r="C14" t="n">
-        <v>1.01082010464703</v>
+        <v>7.40546307730917</v>
       </c>
       <c r="D14" t="n">
-        <v>1.27667089133251</v>
+        <v>2.44483976749688</v>
       </c>
       <c r="E14" t="n">
-        <v>3.32013986089704</v>
+        <v>2.54619353086539</v>
       </c>
       <c r="F14" t="n">
-        <v>1.26740513490379</v>
+        <v>1.03190049096963</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4895847271626</v>
+        <v>1.36303149031049</v>
       </c>
       <c r="H14" t="n">
-        <v>0.972928723489193</v>
+        <v>7.0513679619583</v>
       </c>
       <c r="I14" t="n">
-        <v>0.89244912589945</v>
+        <v>1.0140423804925</v>
       </c>
       <c r="J14" t="n">
-        <v>1.14400943378234</v>
+        <v>8.95012985423058</v>
       </c>
       <c r="K14" t="n">
-        <v>0.782662532319666</v>
+        <v>1.2164242532456</v>
       </c>
     </row>
     <row r="15">
@@ -925,34 +925,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>2.11970696245837</v>
+        <v>2.15984992240578</v>
       </c>
       <c r="C15" t="n">
-        <v>2.16332974422616</v>
+        <v>2.63299818536065</v>
       </c>
       <c r="D15" t="n">
-        <v>1.30732597408538</v>
+        <v>58894.0694102439</v>
       </c>
       <c r="E15" t="n">
-        <v>1.08616292634026</v>
+        <v>2.03303131167566</v>
       </c>
       <c r="F15" t="n">
-        <v>2.03462127086973</v>
+        <v>1.45003185063451</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37538704274184</v>
+        <v>1.30529539755387</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79640963724803</v>
+        <v>1.7991090415602</v>
       </c>
       <c r="I15" t="n">
-        <v>2.91346157864839</v>
+        <v>2.02394110025409</v>
       </c>
       <c r="J15" t="n">
-        <v>24.1815303369679</v>
+        <v>8.66527639172453</v>
       </c>
       <c r="K15" t="n">
-        <v>1.41700079176572</v>
+        <v>2.08724012606899</v>
       </c>
     </row>
     <row r="16">
@@ -960,34 +960,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>5.57063341925368</v>
+        <v>7.85277337031864</v>
       </c>
       <c r="C16" t="n">
-        <v>6.67955793141847</v>
+        <v>10.0976933759127</v>
       </c>
       <c r="D16" t="n">
-        <v>1.71080898832525</v>
+        <v>12.3674055744211</v>
       </c>
       <c r="E16" t="n">
-        <v>1.61005916742777</v>
+        <v>3.11701577908803</v>
       </c>
       <c r="F16" t="n">
-        <v>10.5410870135285</v>
+        <v>3.28743383083228</v>
       </c>
       <c r="G16" t="n">
-        <v>2.00926138849334</v>
+        <v>1.98727914289499</v>
       </c>
       <c r="H16" t="n">
-        <v>2.03595679514751</v>
+        <v>2.65350392471239</v>
       </c>
       <c r="I16" t="n">
-        <v>6.92170555730485</v>
+        <v>8.45189064545261</v>
       </c>
       <c r="J16" t="n">
-        <v>1.85932277052074</v>
+        <v>2.06153935381424</v>
       </c>
       <c r="K16" t="n">
-        <v>1.31981959804677</v>
+        <v>3.06227655259935</v>
       </c>
     </row>
     <row r="17">
@@ -995,34 +995,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>2.02219364714383</v>
+        <v>3.69442811444469</v>
       </c>
       <c r="C17" t="n">
-        <v>3.69553502268643</v>
+        <v>2.77582218399983</v>
       </c>
       <c r="D17" t="n">
-        <v>2.43544622742681</v>
+        <v>2.86700282151519</v>
       </c>
       <c r="E17" t="n">
-        <v>2.71817515556044</v>
+        <v>4.83759591966815</v>
       </c>
       <c r="F17" t="n">
-        <v>5.16472831550859</v>
+        <v>2.82441492761171</v>
       </c>
       <c r="G17" t="n">
-        <v>1.95825856699932</v>
+        <v>1.86704906167126</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74938089440662</v>
+        <v>4.92734028896632</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8161262154325</v>
+        <v>4.22820420647602</v>
       </c>
       <c r="J17" t="n">
-        <v>4.55779547317775</v>
+        <v>3.11575167145141</v>
       </c>
       <c r="K17" t="n">
-        <v>1.6963366416397</v>
+        <v>1.98215181609711</v>
       </c>
     </row>
     <row r="18">
@@ -1030,34 +1030,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>1.27094529052618</v>
+        <v>1.42014611828114</v>
       </c>
       <c r="C18" t="n">
-        <v>2.00524177269156</v>
+        <v>1.6918627633657</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0816616762197</v>
+        <v>58895.2563875125</v>
       </c>
       <c r="E18" t="n">
-        <v>1.20992867609149</v>
+        <v>1.30021388912678</v>
       </c>
       <c r="F18" t="n">
-        <v>1.13787368562271</v>
+        <v>1.62231997360349</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47919693161943</v>
+        <v>1.39949771236883</v>
       </c>
       <c r="H18" t="n">
-        <v>2.63587340805068</v>
+        <v>1.8308825092096</v>
       </c>
       <c r="I18" t="n">
-        <v>1.47338359243653</v>
+        <v>1.33529153904494</v>
       </c>
       <c r="J18" t="n">
-        <v>1.39674522553804</v>
+        <v>1.2371440931278</v>
       </c>
       <c r="K18" t="n">
-        <v>1.2547804647292</v>
+        <v>1.72961488967958</v>
       </c>
     </row>
     <row r="19">
@@ -1065,34 +1065,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.897029847053899</v>
+        <v>0.854778657502381</v>
       </c>
       <c r="C19" t="n">
-        <v>0.973784324379516</v>
+        <v>0.648661797092692</v>
       </c>
       <c r="D19" t="n">
-        <v>0.68553489911879</v>
+        <v>-176676.102602587</v>
       </c>
       <c r="E19" t="n">
-        <v>0.51856296289349</v>
+        <v>0.740579689994833</v>
       </c>
       <c r="F19" t="n">
-        <v>0.594216614426835</v>
+        <v>0.468846699855664</v>
       </c>
       <c r="G19" t="n">
-        <v>0.802822448273543</v>
+        <v>0.927564808920333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.647096604336023</v>
+        <v>0.61254957572718</v>
       </c>
       <c r="I19" t="n">
-        <v>0.85183319455518</v>
+        <v>0.733791449011014</v>
       </c>
       <c r="J19" t="n">
-        <v>0.786643145645947</v>
+        <v>0.700631332362066</v>
       </c>
       <c r="K19" t="n">
-        <v>0.734867147274813</v>
+        <v>0.845817713156202</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Duration</t>
@@ -464,635 +470,749 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>54.0084269081702</v>
+        <v>53.1661437157207</v>
       </c>
       <c r="C2" t="n">
-        <v>86.017595350166</v>
+        <v>72.5514801520018</v>
       </c>
       <c r="D2" t="n">
-        <v>88.2620766024478</v>
+        <v>52.5196904689474</v>
       </c>
       <c r="E2" t="n">
-        <v>44.1083868443549</v>
+        <v>64.7845099410566</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0162651940156</v>
+        <v>86.5874691428131</v>
       </c>
       <c r="G2" t="n">
-        <v>26.7522741686808</v>
+        <v>28.1333174863265</v>
       </c>
       <c r="H2" t="n">
-        <v>89.5635614376235</v>
+        <v>96.5661340381763</v>
       </c>
       <c r="I2" t="n">
-        <v>49.7885203735634</v>
+        <v>102.605231680915</v>
       </c>
       <c r="J2" t="n">
-        <v>121.502544033501</v>
+        <v>37.4631846166827</v>
       </c>
       <c r="K2" t="n">
-        <v>67.9179256000284</v>
+        <v>45.2754386380432</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.3627907998722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36.6205601797203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.853354336330778</v>
+        <v>4068.98160509623</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10568411690927</v>
+        <v>2.76691119560086</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08158939348767</v>
+        <v>0.892045468436036</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7414687000063</v>
+        <v>3.2541257547835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.755396463872956</v>
+        <v>1.22331371634012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.926638029188717</v>
+        <v>1.35315610682375</v>
       </c>
       <c r="H3" t="n">
-        <v>26.6876807088145</v>
+        <v>10.9555977635721</v>
       </c>
       <c r="I3" t="n">
-        <v>0.31915896479221</v>
+        <v>0.571601094442279</v>
       </c>
       <c r="J3" t="n">
-        <v>0.541646923123592</v>
+        <v>0.298673576285638</v>
       </c>
       <c r="K3" t="n">
-        <v>8.35225616588912</v>
+        <v>10.3745532469008</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.850975834184747</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10676.1605408572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>2.51819726513441</v>
+        <v>4.44376467189027</v>
       </c>
       <c r="C4" t="n">
-        <v>2.88752589498947</v>
+        <v>5.50913575278833</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3365451191409</v>
+        <v>2.39087406933404</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05577102655493</v>
+        <v>3.13860106103714</v>
       </c>
       <c r="F4" t="n">
-        <v>2.47566389349992</v>
+        <v>11.0417490410753</v>
       </c>
       <c r="G4" t="n">
-        <v>3.67473293081903</v>
+        <v>3.24498880800471</v>
       </c>
       <c r="H4" t="n">
-        <v>5.07212879661139</v>
+        <v>4.93007252540713</v>
       </c>
       <c r="I4" t="n">
-        <v>4.63205084279722</v>
+        <v>8.20702036594837</v>
       </c>
       <c r="J4" t="n">
-        <v>8.09002146145839</v>
+        <v>6.39250428517991</v>
       </c>
       <c r="K4" t="n">
-        <v>20.0908166744983</v>
+        <v>2.11588648279266</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.64727542547486</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.21957092540028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.981228055867045</v>
+        <v>2.64126117995903</v>
       </c>
       <c r="C5" t="n">
-        <v>3.21010423412063</v>
+        <v>4.26730866737875</v>
       </c>
       <c r="D5" t="n">
-        <v>4.54813276452307</v>
+        <v>1.05579616769827</v>
       </c>
       <c r="E5" t="n">
-        <v>0.906709977515774</v>
+        <v>2.46818667612365</v>
       </c>
       <c r="F5" t="n">
-        <v>1.31268407933396</v>
+        <v>3.17954312024152</v>
       </c>
       <c r="G5" t="n">
-        <v>2.57275475431305</v>
+        <v>1.57507289078766</v>
       </c>
       <c r="H5" t="n">
-        <v>13.2074929233969</v>
+        <v>14.4470262545252</v>
       </c>
       <c r="I5" t="n">
-        <v>2.81022494818677</v>
+        <v>5.05983970659779</v>
       </c>
       <c r="J5" t="n">
-        <v>4.49692432549506</v>
+        <v>2.82897087202282</v>
       </c>
       <c r="K5" t="n">
-        <v>1.57616105344439</v>
+        <v>0.950672913298184</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.40619287869634</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.47524354892887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>6.57851818657647</v>
+        <v>10.2660735831833</v>
       </c>
       <c r="C6" t="n">
-        <v>2.9394052615601</v>
+        <v>19.5721314483161</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1551585109695</v>
+        <v>5.46899451517478</v>
       </c>
       <c r="E6" t="n">
-        <v>2.13013142419517</v>
+        <v>3.03797750669618</v>
       </c>
       <c r="F6" t="n">
-        <v>2.41502222746053</v>
+        <v>30.7486643243057</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000565710697373446</v>
+        <v>2.0056613553625</v>
       </c>
       <c r="H6" t="n">
-        <v>13.4577833167797</v>
+        <v>31.661500640922</v>
       </c>
       <c r="I6" t="n">
-        <v>10.8278346693018</v>
+        <v>48.1361868447307</v>
       </c>
       <c r="J6" t="n">
-        <v>61.0474632866556</v>
+        <v>3.13032801335051</v>
       </c>
       <c r="K6" t="n">
-        <v>5.87160796763517</v>
+        <v>2.81176370141967</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000000490872000547055</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.50212720931022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>9.83168604830684</v>
+        <v>3.1158162956791</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0174112278558</v>
+        <v>4.42912677046598</v>
       </c>
       <c r="D7" t="n">
-        <v>2.6541030783692</v>
+        <v>5.8806835595603</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85801375165641</v>
+        <v>7.98816662540826</v>
       </c>
       <c r="F7" t="n">
-        <v>1.27699305811605</v>
+        <v>5.30478878527017</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49697210057286</v>
+        <v>1.3315980315661</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99595255588488</v>
+        <v>1.95940250919955</v>
       </c>
       <c r="I7" t="n">
-        <v>1.39787728204592</v>
+        <v>1.60676451979756</v>
       </c>
       <c r="J7" t="n">
-        <v>1.46028163238985</v>
+        <v>1.69029379292825</v>
       </c>
       <c r="K7" t="n">
-        <v>2.52782561147198</v>
+        <v>1.84643988141251</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.41280037879335</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.26977689319071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.382474082051395</v>
+        <v>0.433246035575318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420036442844196</v>
+        <v>0.462374941041746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.403975448664974</v>
+        <v>0.389280341958718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3610017066312</v>
+        <v>0.467392045445352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.300296025080185</v>
+        <v>0.383872399458278</v>
       </c>
       <c r="G8" t="n">
-        <v>0.277803325311605</v>
+        <v>0.329248154617942</v>
       </c>
       <c r="H8" t="n">
-        <v>0.534568451092737</v>
+        <v>0.569766363119504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.29866179724145</v>
+        <v>0.620391829597706</v>
       </c>
       <c r="J8" t="n">
-        <v>0.409455745297989</v>
+        <v>0.312002842301198</v>
       </c>
       <c r="K8" t="n">
-        <v>0.390044397343803</v>
+        <v>0.378265854612534</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.27938671244886</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.435359586973493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>2.39135600545281</v>
+        <v>2.21983559269239</v>
       </c>
       <c r="C9" t="n">
-        <v>1.81088038167873</v>
+        <v>2.10384238546461</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01553741832064</v>
+        <v>2.26660964756448</v>
       </c>
       <c r="E9" t="n">
-        <v>1.92977541670347</v>
+        <v>1.71361811850611</v>
       </c>
       <c r="F9" t="n">
-        <v>1.77565925326528</v>
+        <v>2.08544085421852</v>
       </c>
       <c r="G9" t="n">
-        <v>1.19213632473448</v>
+        <v>1.8065811738558</v>
       </c>
       <c r="H9" t="n">
-        <v>1.83416132701368</v>
+        <v>2.03447765294933</v>
       </c>
       <c r="I9" t="n">
-        <v>2.47447858879028</v>
+        <v>2.70589662906259</v>
       </c>
       <c r="J9" t="n">
-        <v>1.96118170773423</v>
+        <v>1.91676155621377</v>
       </c>
       <c r="K9" t="n">
-        <v>2.73624140075923</v>
+        <v>2.02542050310978</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.14888457595211</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.5238389532304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>6.99938855642696</v>
+        <v>3.22829861328605</v>
       </c>
       <c r="C10" t="n">
-        <v>8.99940015254922</v>
+        <v>4.71670708918801</v>
       </c>
       <c r="D10" t="n">
-        <v>0.633867754401577</v>
+        <v>3.69989001475799</v>
       </c>
       <c r="E10" t="n">
-        <v>4.75764587876653</v>
+        <v>11.3283266118199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.558962262473466</v>
+        <v>0.75446878021545</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9577193767339</v>
+        <v>0.751172058835541</v>
       </c>
       <c r="H10" t="n">
-        <v>1.80067704781501</v>
+        <v>1.80636005350085</v>
       </c>
       <c r="I10" t="n">
-        <v>1.13343733657744</v>
+        <v>5.89153214889101</v>
       </c>
       <c r="J10" t="n">
-        <v>6.62115040450604</v>
+        <v>0.975692159602213</v>
       </c>
       <c r="K10" t="n">
-        <v>2.87265803300135</v>
+        <v>4.53619809163984</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.8717860070882</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04326144763042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>2.50138724824949</v>
+        <v>3.57642984976897</v>
       </c>
       <c r="C11" t="n">
-        <v>6.9088561802043</v>
+        <v>3.70544510163403</v>
       </c>
       <c r="D11" t="n">
-        <v>3.10158260363357</v>
+        <v>2.55766530160863</v>
       </c>
       <c r="E11" t="n">
-        <v>2.76700876932477</v>
+        <v>5.71082215452249</v>
       </c>
       <c r="F11" t="n">
-        <v>3.49404016607398</v>
+        <v>2.82640111037569</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18392057725969</v>
+        <v>3.49558693524736</v>
       </c>
       <c r="H11" t="n">
-        <v>3.01657985537195</v>
+        <v>2.82419083632874</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1624707700945</v>
+        <v>3.92869955923037</v>
       </c>
       <c r="J11" t="n">
-        <v>3.49354874354866</v>
+        <v>3.29845784778028</v>
       </c>
       <c r="K11" t="n">
-        <v>9.37011408619729</v>
+        <v>2.90800836857546</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.16655055356525</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.81839363690925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>1.96270932285293</v>
+        <v>3000.05361789895</v>
       </c>
       <c r="C12" t="n">
-        <v>3.52831217987178</v>
+        <v>6899.33751840394</v>
       </c>
       <c r="D12" t="n">
-        <v>58894.1260742881</v>
+        <v>1.84971521213775</v>
       </c>
       <c r="E12" t="n">
-        <v>1.14472712161707</v>
+        <v>3.59339648081337</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17582182100176</v>
+        <v>42377.826877215</v>
       </c>
       <c r="G12" t="n">
-        <v>1.14341606419346</v>
+        <v>1.22843095296057</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95722581741435</v>
+        <v>1.97696849934303</v>
       </c>
       <c r="I12" t="n">
-        <v>1.69754073334496</v>
+        <v>1.88617955565556</v>
       </c>
       <c r="J12" t="n">
-        <v>1.14210014200451</v>
+        <v>1.32576388907675</v>
       </c>
       <c r="K12" t="n">
-        <v>2.30277372406201</v>
+        <v>1.21059029345766</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.22289971597184</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.48773005591952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>2.01169175490165</v>
+        <v>1.19463066444169</v>
       </c>
       <c r="C13" t="n">
-        <v>0.937477894541757</v>
+        <v>1.48401730251138</v>
       </c>
       <c r="D13" t="n">
-        <v>1.33931148771358</v>
+        <v>3.13549049291993</v>
       </c>
       <c r="E13" t="n">
-        <v>0.881502950964459</v>
+        <v>0.614072268379997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.790778170330182</v>
+        <v>0.97568037473685</v>
       </c>
       <c r="G13" t="n">
-        <v>0.476462506123525</v>
+        <v>0.876774100792225</v>
       </c>
       <c r="H13" t="n">
-        <v>1.12455733529451</v>
+        <v>1.34563888054293</v>
       </c>
       <c r="I13" t="n">
-        <v>1.24762311965973</v>
+        <v>1.88280963335303</v>
       </c>
       <c r="J13" t="n">
-        <v>7.50829696457641</v>
+        <v>1.32725547873632</v>
       </c>
       <c r="K13" t="n">
-        <v>0.903901134878907</v>
+        <v>1.02906748379859</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.46560922202107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.994294721600372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>1.01445986306682</v>
+        <v>3.01729113255799</v>
       </c>
       <c r="C14" t="n">
-        <v>7.40546307730917</v>
+        <v>4.1170363812701</v>
       </c>
       <c r="D14" t="n">
-        <v>2.44483976749688</v>
+        <v>3.10917546250836</v>
       </c>
       <c r="E14" t="n">
-        <v>2.54619353086539</v>
+        <v>5.50923659151077</v>
       </c>
       <c r="F14" t="n">
-        <v>1.03190049096963</v>
+        <v>2.28816883885915</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36303149031049</v>
+        <v>1.05220190908077</v>
       </c>
       <c r="H14" t="n">
-        <v>7.0513679619583</v>
+        <v>9.07972714272027</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0140423804925</v>
+        <v>3.52883687211662</v>
       </c>
       <c r="J14" t="n">
-        <v>8.95012985423058</v>
+        <v>1.38679864322859</v>
       </c>
       <c r="K14" t="n">
-        <v>1.2164242532456</v>
+        <v>2.63662498350193</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.32590156980658</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.06251634119325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>2.15984992240578</v>
+        <v>3001.04894121838</v>
       </c>
       <c r="C15" t="n">
-        <v>2.63299818536065</v>
+        <v>6900.43308408397</v>
       </c>
       <c r="D15" t="n">
-        <v>58894.0694102439</v>
+        <v>2.05247934508929</v>
       </c>
       <c r="E15" t="n">
-        <v>2.03303131167566</v>
+        <v>2.23881555475157</v>
       </c>
       <c r="F15" t="n">
-        <v>1.45003185063451</v>
+        <v>42378.0928734059</v>
       </c>
       <c r="G15" t="n">
-        <v>1.30529539755387</v>
+        <v>1.51500677947072</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7991090415602</v>
+        <v>1.97112095805667</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02394110025409</v>
+        <v>9.15473375349326</v>
       </c>
       <c r="J15" t="n">
-        <v>8.66527639172453</v>
+        <v>1.71025725933929</v>
       </c>
       <c r="K15" t="n">
-        <v>2.08724012606899</v>
+        <v>2.79580932191072</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29816785113253</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.2164661775572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>7.85277337031864</v>
+        <v>5.03453427963612</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0976933759127</v>
+        <v>7.77979808196673</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3674055744211</v>
+        <v>11.4457134546301</v>
       </c>
       <c r="E16" t="n">
-        <v>3.11701577908803</v>
+        <v>9.224145238184</v>
       </c>
       <c r="F16" t="n">
-        <v>3.28743383083228</v>
+        <v>15.4404841551944</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98727914289499</v>
+        <v>3.29056466815858</v>
       </c>
       <c r="H16" t="n">
-        <v>2.65350392471239</v>
+        <v>2.57146525134935</v>
       </c>
       <c r="I16" t="n">
-        <v>8.45189064545261</v>
+        <v>2.2167902222953</v>
       </c>
       <c r="J16" t="n">
-        <v>2.06153935381424</v>
+        <v>3.63198702441366</v>
       </c>
       <c r="K16" t="n">
-        <v>3.06227655259935</v>
+        <v>3.06569458239708</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.92999385159202</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.95555083061532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>3.69442811444469</v>
+        <v>3.57915507224236</v>
       </c>
       <c r="C17" t="n">
-        <v>2.77582218399983</v>
+        <v>3.53233319215924</v>
       </c>
       <c r="D17" t="n">
-        <v>2.86700282151519</v>
+        <v>3.70781721228362</v>
       </c>
       <c r="E17" t="n">
-        <v>4.83759591966815</v>
+        <v>2.68775314073755</v>
       </c>
       <c r="F17" t="n">
-        <v>2.82441492761171</v>
+        <v>2.64676868541142</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86704906167126</v>
+        <v>2.40615967839573</v>
       </c>
       <c r="H17" t="n">
-        <v>4.92734028896632</v>
+        <v>5.59534495487609</v>
       </c>
       <c r="I17" t="n">
-        <v>4.22820420647602</v>
+        <v>4.16303791601835</v>
       </c>
       <c r="J17" t="n">
-        <v>3.11575167145141</v>
+        <v>5.21749454089537</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98215181609711</v>
+        <v>4.52890946148262</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.01989706942532</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.39448393702574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>1.42014611828114</v>
+        <v>3000.02952815866</v>
       </c>
       <c r="C18" t="n">
-        <v>1.6918627633657</v>
+        <v>6899.13188159974</v>
       </c>
       <c r="D18" t="n">
-        <v>58895.2563875125</v>
+        <v>1.87072650144967</v>
       </c>
       <c r="E18" t="n">
-        <v>1.30021388912678</v>
+        <v>2.1247045384741</v>
       </c>
       <c r="F18" t="n">
-        <v>1.62231997360349</v>
+        <v>42377.8606722752</v>
       </c>
       <c r="G18" t="n">
-        <v>1.39949771236883</v>
+        <v>1.37999944936588</v>
       </c>
       <c r="H18" t="n">
-        <v>1.8308825092096</v>
+        <v>2.19524068442688</v>
       </c>
       <c r="I18" t="n">
-        <v>1.33529153904494</v>
+        <v>2.30127598539207</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2371440931278</v>
+        <v>1.31074314707227</v>
       </c>
       <c r="K18" t="n">
-        <v>1.72961488967958</v>
+        <v>1.31887608311154</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.3673269805902</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.60356576557928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.854778657502381</v>
+        <v>-13059.6966878291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.648661797092692</v>
+        <v>-20690.7934752408</v>
       </c>
       <c r="D19" t="n">
-        <v>-176676.102602587</v>
+        <v>0.746733701835474</v>
       </c>
       <c r="E19" t="n">
-        <v>0.740579689994833</v>
+        <v>-0.31483042613733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.468846699855664</v>
+        <v>-127126.06237317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.927564808920333</v>
+        <v>0.491114433000679</v>
       </c>
       <c r="H19" t="n">
-        <v>0.61254957572718</v>
+        <v>0.642233067336698</v>
       </c>
       <c r="I19" t="n">
-        <v>0.733791449011014</v>
+        <v>0.743635044292525</v>
       </c>
       <c r="J19" t="n">
-        <v>0.700631332362066</v>
+        <v>0.709199688255894</v>
       </c>
       <c r="K19" t="n">
-        <v>0.845817713156202</v>
+        <v>0.742657384621631</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.949141682256962</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-10673.5421607086</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -476,13 +479,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>53.1661437157207</v>
+        <v>50.7179588534331</v>
       </c>
       <c r="C2" t="n">
         <v>72.5514801520018</v>
@@ -512,15 +518,18 @@
         <v>45.2754386380432</v>
       </c>
       <c r="L2" t="n">
-        <v>25.3627907998722</v>
+        <v>35.6955918929508</v>
       </c>
       <c r="M2" t="n">
+        <v>25.3627907998723</v>
+      </c>
+      <c r="N2" t="n">
         <v>36.6205601797203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>4068.98160509623</v>
@@ -552,16 +561,17 @@
       <c r="K3" t="n">
         <v>10.3745532469008</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3"/>
+      <c r="M3" t="n">
         <v>0.850975834184747</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>10676.1605408572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>4.44376467189027</v>
@@ -582,27 +592,28 @@
         <v>3.24498880800471</v>
       </c>
       <c r="H4" t="n">
-        <v>4.93007252540713</v>
+        <v>4.93007252540714</v>
       </c>
       <c r="I4" t="n">
         <v>8.20702036594837</v>
       </c>
       <c r="J4" t="n">
-        <v>6.39250428517991</v>
+        <v>6.39250428517992</v>
       </c>
       <c r="K4" t="n">
         <v>2.11588648279266</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>3.64727542547486</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>4.21957092540028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>2.64126117995903</v>
@@ -634,16 +645,17 @@
       <c r="K5" t="n">
         <v>0.950672913298184</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>2.40619287869634</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1.47524354892887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>10.2660735831833</v>
@@ -675,16 +687,17 @@
       <c r="K6" t="n">
         <v>2.81176370141967</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6"/>
+      <c r="M6" t="n">
         <v>0.000000490872000547055</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3.50212720931022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>3.1158162956791</v>
@@ -716,16 +729,17 @@
       <c r="K7" t="n">
         <v>1.84643988141251</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7"/>
+      <c r="M7" t="n">
         <v>1.41280037879335</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>2.26977689319071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.433246035575318</v>
@@ -757,16 +771,17 @@
       <c r="K8" t="n">
         <v>0.378265854612534</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>0.27938671244886</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.435359586973493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>2.21983559269239</v>
@@ -798,16 +813,17 @@
       <c r="K9" t="n">
         <v>2.02542050310978</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9"/>
+      <c r="M9" t="n">
         <v>1.14888457595211</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>2.5238389532304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>3.22829861328605</v>
@@ -839,16 +855,17 @@
       <c r="K10" t="n">
         <v>4.53619809163984</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10"/>
+      <c r="M10" t="n">
         <v>2.8717860070882</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1.04326144763042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>3.57642984976897</v>
@@ -880,16 +897,17 @@
       <c r="K11" t="n">
         <v>2.90800836857546</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11"/>
+      <c r="M11" t="n">
         <v>2.16655055356525</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>3.81839363690925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>3000.05361789895</v>
@@ -921,16 +939,17 @@
       <c r="K12" t="n">
         <v>1.21059029345766</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12"/>
+      <c r="M12" t="n">
         <v>1.22289971597184</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1.48773005591952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>1.19463066444169</v>
@@ -962,16 +981,17 @@
       <c r="K13" t="n">
         <v>1.02906748379859</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13"/>
+      <c r="M13" t="n">
         <v>0.46560922202107</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.994294721600372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>3.01729113255799</v>
@@ -992,7 +1012,7 @@
         <v>1.05220190908077</v>
       </c>
       <c r="H14" t="n">
-        <v>9.07972714272027</v>
+        <v>9.07972714272028</v>
       </c>
       <c r="I14" t="n">
         <v>3.52883687211662</v>
@@ -1003,16 +1023,17 @@
       <c r="K14" t="n">
         <v>2.63662498350193</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14"/>
+      <c r="M14" t="n">
         <v>1.32590156980658</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>2.06251634119325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>3001.04894121838</v>
@@ -1044,16 +1065,17 @@
       <c r="K15" t="n">
         <v>2.79580932191072</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15"/>
+      <c r="M15" t="n">
         <v>1.29816785113253</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>2.2164661775572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
         <v>5.03453427963612</v>
@@ -1085,16 +1107,17 @@
       <c r="K16" t="n">
         <v>3.06569458239708</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16"/>
+      <c r="M16" t="n">
         <v>1.92999385159202</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2.95555083061532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
         <v>3.57915507224236</v>
@@ -1126,16 +1149,17 @@
       <c r="K17" t="n">
         <v>4.52890946148262</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17"/>
+      <c r="M17" t="n">
         <v>2.01989706942532</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>3.39448393702574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
         <v>3000.02952815866</v>
@@ -1167,22 +1191,23 @@
       <c r="K18" t="n">
         <v>1.31887608311154</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18"/>
+      <c r="M18" t="n">
         <v>1.3673269805902</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1.60356576557928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>-13059.6966878291</v>
+        <v>-11224.612056836</v>
       </c>
       <c r="C19" t="n">
-        <v>-20690.7934752408</v>
+        <v>-20690.7934752407</v>
       </c>
       <c r="D19" t="n">
         <v>0.746733701835474</v>
@@ -1209,9 +1234,12 @@
         <v>0.742657384621631</v>
       </c>
       <c r="L19" t="n">
+        <v>35.6955918929508</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.949141682256962</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>-10673.5421607086</v>
       </c>
     </row>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>50.7179588534331</v>
+        <v>60.3858856367471</v>
       </c>
       <c r="C2" t="n">
         <v>72.5514801520018</v>
@@ -515,16 +515,16 @@
         <v>37.4631846166827</v>
       </c>
       <c r="K2" t="n">
-        <v>45.2754386380432</v>
+        <v>45.265798412196</v>
       </c>
       <c r="L2" t="n">
-        <v>35.6955918929508</v>
+        <v>105.041401045725</v>
       </c>
       <c r="M2" t="n">
         <v>25.3627907998723</v>
       </c>
       <c r="N2" t="n">
-        <v>36.6205601797203</v>
+        <v>36.56805362158</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>4068.98160509623</v>
+        <v>4082.89927538263</v>
       </c>
       <c r="C3" t="n">
         <v>2.76691119560086</v>
@@ -559,14 +559,14 @@
         <v>0.298673576285638</v>
       </c>
       <c r="K3" t="n">
-        <v>10.3745532469008</v>
+        <v>10.3482752823576</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
         <v>0.850975834184747</v>
       </c>
       <c r="N3" t="n">
-        <v>10676.1605408572</v>
+        <v>10686.2995154378</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>4.44376467189027</v>
+        <v>4.43677621365884</v>
       </c>
       <c r="C4" t="n">
         <v>5.50913575278833</v>
@@ -592,23 +592,23 @@
         <v>3.24498880800471</v>
       </c>
       <c r="H4" t="n">
-        <v>4.93007252540714</v>
+        <v>4.93007252540713</v>
       </c>
       <c r="I4" t="n">
-        <v>8.20702036594837</v>
+        <v>8.20702036594838</v>
       </c>
       <c r="J4" t="n">
         <v>6.39250428517992</v>
       </c>
       <c r="K4" t="n">
-        <v>2.11588648279266</v>
+        <v>2.11723414529968</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
         <v>3.64727542547486</v>
       </c>
       <c r="N4" t="n">
-        <v>4.21957092540028</v>
+        <v>4.20162921972641</v>
       </c>
     </row>
     <row r="5">
@@ -616,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>2.64126117995903</v>
+        <v>2.63809340787633</v>
       </c>
       <c r="C5" t="n">
         <v>4.26730866737875</v>
@@ -643,14 +643,14 @@
         <v>2.82897087202282</v>
       </c>
       <c r="K5" t="n">
-        <v>0.950672913298184</v>
+        <v>0.950961050927102</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
         <v>2.40619287869634</v>
       </c>
       <c r="N5" t="n">
-        <v>1.47524354892887</v>
+        <v>1.47147866946322</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>10.2660735831833</v>
+        <v>10.24651219227</v>
       </c>
       <c r="C6" t="n">
         <v>19.5721314483161</v>
       </c>
       <c r="D6" t="n">
-        <v>5.46899451517478</v>
+        <v>5.46899451517479</v>
       </c>
       <c r="E6" t="n">
         <v>3.03797750669618</v>
@@ -685,14 +685,14 @@
         <v>3.13032801335051</v>
       </c>
       <c r="K6" t="n">
-        <v>2.81176370141967</v>
+        <v>2.8142556576562</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
         <v>0.000000490872000547055</v>
       </c>
       <c r="N6" t="n">
-        <v>3.50212720931022</v>
+        <v>3.47685915933737</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>3.1158162956791</v>
+        <v>3.11260802520171</v>
       </c>
       <c r="C7" t="n">
         <v>4.42912677046598</v>
@@ -727,14 +727,14 @@
         <v>1.69029379292825</v>
       </c>
       <c r="K7" t="n">
-        <v>1.84643988141251</v>
+        <v>1.84740260667086</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
         <v>1.41280037879335</v>
       </c>
       <c r="N7" t="n">
-        <v>2.26977689319071</v>
+        <v>2.2643651802235</v>
       </c>
     </row>
     <row r="8">
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433246035575318</v>
+        <v>0.433242778030893</v>
       </c>
       <c r="C8" t="n">
         <v>0.462374941041746</v>
@@ -769,14 +769,14 @@
         <v>0.312002842301198</v>
       </c>
       <c r="K8" t="n">
-        <v>0.378265854612534</v>
+        <v>0.378545006272694</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
         <v>0.27938671244886</v>
       </c>
       <c r="N8" t="n">
-        <v>0.435359586973493</v>
+        <v>0.435232581680904</v>
       </c>
     </row>
     <row r="9">
@@ -784,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>2.21983559269239</v>
+        <v>2.21887505415695</v>
       </c>
       <c r="C9" t="n">
         <v>2.10384238546461</v>
@@ -811,14 +811,14 @@
         <v>1.91676155621377</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02542050310978</v>
+        <v>2.02663842919111</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
         <v>1.14888457595211</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5238389532304</v>
+        <v>2.51963186388005</v>
       </c>
     </row>
     <row r="10">
@@ -826,7 +826,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>3.22829861328605</v>
+        <v>3.22395138306479</v>
       </c>
       <c r="C10" t="n">
         <v>4.71670708918801</v>
@@ -853,14 +853,14 @@
         <v>0.975692159602213</v>
       </c>
       <c r="K10" t="n">
-        <v>4.53619809163984</v>
+        <v>4.53654976738986</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
         <v>2.8717860070882</v>
       </c>
       <c r="N10" t="n">
-        <v>1.04326144763042</v>
+        <v>1.04044221625182</v>
       </c>
     </row>
     <row r="11">
@@ -868,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>3.57642984976897</v>
+        <v>3.58967842130771</v>
       </c>
       <c r="C11" t="n">
         <v>3.70544510163403</v>
@@ -895,14 +895,14 @@
         <v>3.29845784778028</v>
       </c>
       <c r="K11" t="n">
-        <v>2.90800836857546</v>
+        <v>2.91027449070564</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
         <v>2.16655055356525</v>
       </c>
       <c r="N11" t="n">
-        <v>3.81839363690925</v>
+        <v>3.85123225935303</v>
       </c>
     </row>
     <row r="12">
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>3000.05361789895</v>
+        <v>2995.49159409664</v>
       </c>
       <c r="C12" t="n">
         <v>6899.33751840394</v>
@@ -937,14 +937,14 @@
         <v>1.32576388907675</v>
       </c>
       <c r="K12" t="n">
-        <v>1.21059029345766</v>
+        <v>1.21021581454767</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
         <v>1.22289971597184</v>
       </c>
       <c r="N12" t="n">
-        <v>1.48773005591952</v>
+        <v>1.48587141864868</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>1.19463066444169</v>
+        <v>1.19296152731599</v>
       </c>
       <c r="C13" t="n">
         <v>1.48401730251138</v>
@@ -979,14 +979,14 @@
         <v>1.32725547873632</v>
       </c>
       <c r="K13" t="n">
-        <v>1.02906748379859</v>
+        <v>1.03122036027141</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.46560922202107</v>
+        <v>0.465609222021071</v>
       </c>
       <c r="N13" t="n">
-        <v>0.994294721600372</v>
+        <v>0.989872452795338</v>
       </c>
     </row>
     <row r="14">
@@ -994,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>3.01729113255799</v>
+        <v>3.01610246617166</v>
       </c>
       <c r="C14" t="n">
         <v>4.1170363812701</v>
@@ -1012,7 +1012,7 @@
         <v>1.05220190908077</v>
       </c>
       <c r="H14" t="n">
-        <v>9.07972714272028</v>
+        <v>9.07972714272027</v>
       </c>
       <c r="I14" t="n">
         <v>3.52883687211662</v>
@@ -1021,14 +1021,14 @@
         <v>1.38679864322859</v>
       </c>
       <c r="K14" t="n">
-        <v>2.63662498350193</v>
+        <v>2.63804254248156</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
         <v>1.32590156980658</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06251634119325</v>
+        <v>2.06264842705817</v>
       </c>
     </row>
     <row r="15">
@@ -1036,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>3001.04894121838</v>
+        <v>2996.48664996978</v>
       </c>
       <c r="C15" t="n">
         <v>6900.43308408397</v>
@@ -1063,14 +1063,14 @@
         <v>1.71025725933929</v>
       </c>
       <c r="K15" t="n">
-        <v>2.79580932191072</v>
+        <v>2.79948849986231</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
         <v>1.29816785113253</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2164661775572</v>
+        <v>2.21337105152458</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>5.03453427963612</v>
+        <v>5.02715067817026</v>
       </c>
       <c r="C16" t="n">
         <v>7.77979808196673</v>
@@ -1105,14 +1105,14 @@
         <v>3.63198702441366</v>
       </c>
       <c r="K16" t="n">
-        <v>3.06569458239708</v>
+        <v>3.06876640759826</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
         <v>1.92999385159202</v>
       </c>
       <c r="N16" t="n">
-        <v>2.95555083061532</v>
+        <v>2.94328605247035</v>
       </c>
     </row>
     <row r="17">
@@ -1120,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>3.57915507224236</v>
+        <v>3.57891277014804</v>
       </c>
       <c r="C17" t="n">
         <v>3.53233319215924</v>
@@ -1147,14 +1147,14 @@
         <v>5.21749454089537</v>
       </c>
       <c r="K17" t="n">
-        <v>4.52890946148262</v>
+        <v>4.52648996429164</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
         <v>2.01989706942532</v>
       </c>
       <c r="N17" t="n">
-        <v>3.39448393702574</v>
+        <v>3.39553892417094</v>
       </c>
     </row>
     <row r="18">
@@ -1162,7 +1162,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>3000.02952815866</v>
+        <v>2995.46663046482</v>
       </c>
       <c r="C18" t="n">
         <v>6899.13188159974</v>
@@ -1189,14 +1189,14 @@
         <v>1.31074314707227</v>
       </c>
       <c r="K18" t="n">
-        <v>1.31887608311154</v>
+        <v>1.31842237561983</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
         <v>1.3673269805902</v>
       </c>
       <c r="N18" t="n">
-        <v>1.60356576557928</v>
+        <v>1.59889206546569</v>
       </c>
     </row>
     <row r="19">
@@ -1204,13 +1204,13 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>-11224.612056836</v>
+        <v>-11217.5158065268</v>
       </c>
       <c r="C19" t="n">
-        <v>-20690.7934752407</v>
+        <v>-20690.7934752408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746733701835474</v>
+        <v>0.746733701835473</v>
       </c>
       <c r="E19" t="n">
         <v>-0.31483042613733</v>
@@ -1231,16 +1231,16 @@
         <v>0.709199688255894</v>
       </c>
       <c r="K19" t="n">
-        <v>0.742657384621631</v>
+        <v>0.743016011052597</v>
       </c>
       <c r="L19" t="n">
-        <v>35.6955918929508</v>
+        <v>105.041401045725</v>
       </c>
       <c r="M19" t="n">
         <v>0.949141682256962</v>
       </c>
       <c r="N19" t="n">
-        <v>-10673.5421607086</v>
+        <v>-10683.6818133583</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>60.3858856367471</v>
+        <v>60.5342651418433</v>
       </c>
       <c r="C2" t="n">
         <v>72.5514801520018</v>
@@ -518,10 +518,10 @@
         <v>45.265798412196</v>
       </c>
       <c r="L2" t="n">
-        <v>105.041401045725</v>
+        <v>106.101642733938</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3627907998723</v>
+        <v>25.3627907998722</v>
       </c>
       <c r="N2" t="n">
         <v>36.56805362158</v>
@@ -592,13 +592,13 @@
         <v>3.24498880800471</v>
       </c>
       <c r="H4" t="n">
-        <v>4.93007252540713</v>
+        <v>4.93007252540714</v>
       </c>
       <c r="I4" t="n">
-        <v>8.20702036594838</v>
+        <v>8.20702036594837</v>
       </c>
       <c r="J4" t="n">
-        <v>6.39250428517992</v>
+        <v>6.39250428517991</v>
       </c>
       <c r="K4" t="n">
         <v>2.11723414529968</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.465609222021071</v>
+        <v>0.46560922202107</v>
       </c>
       <c r="N13" t="n">
         <v>0.989872452795338</v>
@@ -1204,13 +1204,13 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>-11217.5158065268</v>
+        <v>-11217.3674270217</v>
       </c>
       <c r="C19" t="n">
         <v>-20690.7934752408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746733701835473</v>
+        <v>0.746733701835474</v>
       </c>
       <c r="E19" t="n">
         <v>-0.31483042613733</v>
@@ -1234,7 +1234,7 @@
         <v>0.743016011052597</v>
       </c>
       <c r="L19" t="n">
-        <v>105.041401045725</v>
+        <v>106.101642733938</v>
       </c>
       <c r="M19" t="n">
         <v>0.949141682256962</v>
